--- a/uploads/import_12.xlsx
+++ b/uploads/import_12.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>No</t>
   </si>
@@ -33,12 +33,6 @@
     <t>Company</t>
   </si>
   <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>Ariel Noah</t>
   </si>
   <si>
@@ -61,6 +55,33 @@
   </si>
   <si>
     <t>089876543210</t>
+  </si>
+  <si>
+    <t>Dept</t>
+  </si>
+  <si>
+    <t>Telephone</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Noah</t>
+  </si>
+  <si>
+    <t>Dangdut</t>
+  </si>
+  <si>
+    <t>Actcode</t>
+  </si>
+  <si>
+    <t>H06</t>
+  </si>
+  <si>
+    <t>021-234567</t>
+  </si>
+  <si>
+    <t>021-343223</t>
   </si>
 </sst>
 </file>
@@ -411,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,13 +443,14 @@
     <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="4" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -442,16 +464,22 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
+      <c r="G1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -459,22 +487,28 @@
         <v>111</v>
       </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="4">
-        <v>42402</v>
+      <c r="I2" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -482,19 +516,25 @@
         <v>222</v>
       </c>
       <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="4">
-        <v>42402</v>
+      <c r="I3" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/import_12.xlsx
+++ b/uploads/import_12.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="135" windowWidth="15315" windowHeight="6465"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>No</t>
   </si>
@@ -70,12 +70,6 @@
   </si>
   <si>
     <t>Dangdut</t>
-  </si>
-  <si>
-    <t>Actcode</t>
-  </si>
-  <si>
-    <t>H06</t>
   </si>
   <si>
     <t>021-234567</t>
@@ -87,8 +81,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,12 +119,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -220,7 +213,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -255,7 +247,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -431,14 +422,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
@@ -447,10 +438,9 @@
     <col min="6" max="6" width="13.42578125" customWidth="1"/>
     <col min="7" max="7" width="13.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -475,11 +465,8 @@
       <c r="H1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
@@ -499,16 +486,13 @@
         <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
@@ -528,13 +512,10 @@
         <v>11</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -544,24 +525,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
